--- a/2022_leaf_trait_analysis/2022_leaf_morphology/Leaf_mass_LC_2022.xlsx
+++ b/2022_leaf_trait_analysis/2022_leaf_morphology/Leaf_mass_LC_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Groups\tgerc\FieldData\2022 data\Living Carbon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chaney/Google Drive/G_Living Carbon/Living_Carbon_Git/2022_leaf_trait_analysis/2022_leaf_morphology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66455589-3032-4F5F-B1EE-83C40B118F54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB10D71C-847F-AE41-BA0C-3D3B32A6289F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="10575" xr2:uid="{47797115-3537-4E5A-8A1E-626629057B68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19320" windowHeight="10580" xr2:uid="{47797115-3537-4E5A-8A1E-626629057B68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2161,11 +2161,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2482,32 +2481,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05C0132-4E6F-4A8F-B238-4BB27673AF8F}">
   <dimension ref="A1:G678"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2540,11 +2539,11 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2557,11 +2556,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2574,11 +2573,11 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2591,11 +2590,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -2608,11 +2607,11 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -2625,11 +2624,11 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -2642,11 +2641,11 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -2659,11 +2658,11 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -2676,11 +2675,11 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -2693,11 +2692,11 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -2710,11 +2709,11 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -2727,11 +2726,11 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -2744,11 +2743,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -2761,11 +2760,11 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -2778,11 +2777,11 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -2795,11 +2794,11 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -2812,11 +2811,11 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -2829,11 +2828,11 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -2846,11 +2845,11 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -2863,11 +2862,11 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -2880,11 +2879,11 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -2897,11 +2896,11 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -2914,11 +2913,11 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -2931,11 +2930,11 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -2948,11 +2947,11 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>10</v>
       </c>
@@ -2965,11 +2964,11 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>11</v>
       </c>
@@ -2982,11 +2981,11 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>12</v>
       </c>
@@ -2999,11 +2998,11 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>13</v>
       </c>
@@ -3016,11 +3015,11 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>14</v>
       </c>
@@ -3033,11 +3032,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>15</v>
       </c>
@@ -3050,11 +3049,11 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>16</v>
       </c>
@@ -3067,11 +3066,11 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -3084,11 +3083,11 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -3102,7 +3101,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -3116,7 +3115,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -3130,7 +3129,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -3144,7 +3143,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -3158,7 +3157,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>7</v>
       </c>
@@ -3172,7 +3171,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -3186,7 +3185,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>9</v>
       </c>
@@ -3200,7 +3199,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>10</v>
       </c>
@@ -3214,7 +3213,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>11</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>12</v>
       </c>
@@ -3244,7 +3243,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>13</v>
       </c>
@@ -3258,7 +3257,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>14</v>
       </c>
@@ -3272,7 +3271,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>15</v>
       </c>
@@ -3286,7 +3285,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>16</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -3334,7 +3333,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -3348,7 +3347,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>4</v>
       </c>
@@ -3362,7 +3361,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>5</v>
       </c>
@@ -3376,7 +3375,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>6</v>
       </c>
@@ -3390,7 +3389,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>7</v>
       </c>
@@ -3404,7 +3403,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>8</v>
       </c>
@@ -3418,7 +3417,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>9</v>
       </c>
@@ -3432,7 +3431,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>10</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>11</v>
       </c>
@@ -3463,7 +3462,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>12</v>
       </c>
@@ -3477,7 +3476,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>13</v>
       </c>
@@ -3491,7 +3490,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>14</v>
       </c>
@@ -3505,7 +3504,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>15</v>
       </c>
@@ -3519,7 +3518,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>16</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -3550,7 +3549,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -3564,7 +3563,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -3578,7 +3577,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>4</v>
       </c>
@@ -3592,7 +3591,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>5</v>
       </c>
@@ -3606,7 +3605,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>6</v>
       </c>
@@ -3620,7 +3619,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>7</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>8</v>
       </c>
@@ -3650,7 +3649,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>9</v>
       </c>
@@ -3664,7 +3663,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>10</v>
       </c>
@@ -3678,7 +3677,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>11</v>
       </c>
@@ -3692,7 +3691,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>12</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>13</v>
       </c>
@@ -3725,7 +3724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>14</v>
       </c>
@@ -3739,7 +3738,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>15</v>
       </c>
@@ -3753,7 +3752,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>16</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>3</v>
       </c>
@@ -3817,7 +3816,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>4</v>
       </c>
@@ -3831,7 +3830,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>5</v>
       </c>
@@ -3845,7 +3844,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>6</v>
       </c>
@@ -3859,7 +3858,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>7</v>
       </c>
@@ -3873,7 +3872,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>8</v>
       </c>
@@ -3887,7 +3886,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>9</v>
       </c>
@@ -3901,7 +3900,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>10</v>
       </c>
@@ -3915,7 +3914,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>11</v>
       </c>
@@ -3929,7 +3928,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>12</v>
       </c>
@@ -3943,7 +3942,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>13</v>
       </c>
@@ -3957,7 +3956,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>14</v>
       </c>
@@ -3971,7 +3970,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>15</v>
       </c>
@@ -3985,7 +3984,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>16</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -4033,7 +4032,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>3</v>
       </c>
@@ -4047,7 +4046,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>4</v>
       </c>
@@ -4061,7 +4060,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>5</v>
       </c>
@@ -4075,7 +4074,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>6</v>
       </c>
@@ -4089,7 +4088,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>7</v>
       </c>
@@ -4103,7 +4102,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>8</v>
       </c>
@@ -4117,7 +4116,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>9</v>
       </c>
@@ -4131,7 +4130,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>10</v>
       </c>
@@ -4145,7 +4144,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>11</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>12</v>
       </c>
@@ -4176,7 +4175,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>13</v>
       </c>
@@ -4190,7 +4189,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>14</v>
       </c>
@@ -4204,7 +4203,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>15</v>
       </c>
@@ -4218,7 +4217,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>16</v>
       </c>
@@ -4235,7 +4234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -4266,7 +4265,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>3</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>4</v>
       </c>
@@ -4294,7 +4293,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>5</v>
       </c>
@@ -4308,7 +4307,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>6</v>
       </c>
@@ -4322,7 +4321,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>7</v>
       </c>
@@ -4336,7 +4335,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>8</v>
       </c>
@@ -4350,7 +4349,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>9</v>
       </c>
@@ -4364,7 +4363,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>10</v>
       </c>
@@ -4378,7 +4377,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>11</v>
       </c>
@@ -4392,7 +4391,7 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>12</v>
       </c>
@@ -4406,7 +4405,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>13</v>
       </c>
@@ -4420,7 +4419,7 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>14</v>
       </c>
@@ -4434,7 +4433,7 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>15</v>
       </c>
@@ -4448,7 +4447,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>16</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -4496,7 +4495,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>3</v>
       </c>
@@ -4510,7 +4509,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>4</v>
       </c>
@@ -4524,7 +4523,7 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>5</v>
       </c>
@@ -4538,7 +4537,7 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>6</v>
       </c>
@@ -4552,7 +4551,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>7</v>
       </c>
@@ -4566,7 +4565,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>8</v>
       </c>
@@ -4580,7 +4579,7 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>9</v>
       </c>
@@ -4594,7 +4593,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>10</v>
       </c>
@@ -4608,7 +4607,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>11</v>
       </c>
@@ -4622,7 +4621,7 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>12</v>
       </c>
@@ -4636,7 +4635,7 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>13</v>
       </c>
@@ -4650,7 +4649,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>14</v>
       </c>
@@ -4664,7 +4663,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>15</v>
       </c>
@@ -4678,7 +4677,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>16</v>
       </c>
@@ -4692,7 +4691,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>2</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>3</v>
       </c>
@@ -4740,7 +4739,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>4</v>
       </c>
@@ -4757,7 +4756,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>5</v>
       </c>
@@ -4771,7 +4770,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>6</v>
       </c>
@@ -4785,7 +4784,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>7</v>
       </c>
@@ -4799,7 +4798,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>8</v>
       </c>
@@ -4813,7 +4812,7 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>9</v>
       </c>
@@ -4827,7 +4826,7 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>10</v>
       </c>
@@ -4841,7 +4840,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>11</v>
       </c>
@@ -4855,7 +4854,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>12</v>
       </c>
@@ -4869,7 +4868,7 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>13</v>
       </c>
@@ -4883,7 +4882,7 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>14</v>
       </c>
@@ -4897,7 +4896,7 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>15</v>
       </c>
@@ -4911,7 +4910,7 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>16</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>1</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>2</v>
       </c>
@@ -4959,7 +4958,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>3</v>
       </c>
@@ -4973,7 +4972,7 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>4</v>
       </c>
@@ -4987,7 +4986,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>5</v>
       </c>
@@ -5001,7 +5000,7 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>6</v>
       </c>
@@ -5015,7 +5014,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>7</v>
       </c>
@@ -5029,7 +5028,7 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>8</v>
       </c>
@@ -5043,7 +5042,7 @@
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>9</v>
       </c>
@@ -5057,7 +5056,7 @@
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>10</v>
       </c>
@@ -5071,7 +5070,7 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>11</v>
       </c>
@@ -5085,7 +5084,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>12</v>
       </c>
@@ -5099,7 +5098,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>13</v>
       </c>
@@ -5113,7 +5112,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>14</v>
       </c>
@@ -5127,7 +5126,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>15</v>
       </c>
@@ -5141,7 +5140,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>16</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>1</v>
       </c>
@@ -5175,7 +5174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -5189,7 +5188,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>3</v>
       </c>
@@ -5203,7 +5202,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>4</v>
       </c>
@@ -5217,7 +5216,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>5</v>
       </c>
@@ -5231,7 +5230,7 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>6</v>
       </c>
@@ -5245,7 +5244,7 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>7</v>
       </c>
@@ -5259,7 +5258,7 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>8</v>
       </c>
@@ -5273,7 +5272,7 @@
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>9</v>
       </c>
@@ -5287,7 +5286,7 @@
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>10</v>
       </c>
@@ -5301,7 +5300,7 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>11</v>
       </c>
@@ -5315,7 +5314,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>12</v>
       </c>
@@ -5329,7 +5328,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>13</v>
       </c>
@@ -5343,7 +5342,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>14</v>
       </c>
@@ -5357,7 +5356,7 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>15</v>
       </c>
@@ -5371,7 +5370,7 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>16</v>
       </c>
@@ -5388,7 +5387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>1</v>
       </c>
@@ -5405,7 +5404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -5419,7 +5418,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>3</v>
       </c>
@@ -5433,7 +5432,7 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>4</v>
       </c>
@@ -5447,7 +5446,7 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>5</v>
       </c>
@@ -5461,7 +5460,7 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>6</v>
       </c>
@@ -5475,7 +5474,7 @@
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>7</v>
       </c>
@@ -5489,7 +5488,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>8</v>
       </c>
@@ -5503,7 +5502,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>9</v>
       </c>
@@ -5517,7 +5516,7 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>10</v>
       </c>
@@ -5531,7 +5530,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>11</v>
       </c>
@@ -5545,7 +5544,7 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>12</v>
       </c>
@@ -5559,7 +5558,7 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>13</v>
       </c>
@@ -5573,7 +5572,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>14</v>
       </c>
@@ -5587,7 +5586,7 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>15</v>
       </c>
@@ -5601,7 +5600,7 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>16</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>1</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>2</v>
       </c>
@@ -5649,7 +5648,7 @@
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>3</v>
       </c>
@@ -5663,7 +5662,7 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>4</v>
       </c>
@@ -5677,7 +5676,7 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>5</v>
       </c>
@@ -5691,7 +5690,7 @@
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>6</v>
       </c>
@@ -5705,7 +5704,7 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>7</v>
       </c>
@@ -5719,7 +5718,7 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>8</v>
       </c>
@@ -5733,7 +5732,7 @@
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>9</v>
       </c>
@@ -5747,7 +5746,7 @@
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>10</v>
       </c>
@@ -5761,7 +5760,7 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>11</v>
       </c>
@@ -5775,7 +5774,7 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>12</v>
       </c>
@@ -5789,7 +5788,7 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>13</v>
       </c>
@@ -5803,7 +5802,7 @@
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>14</v>
       </c>
@@ -5817,7 +5816,7 @@
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>15</v>
       </c>
@@ -5831,7 +5830,7 @@
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>16</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>1</v>
       </c>
@@ -5862,7 +5861,7 @@
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>2</v>
       </c>
@@ -5876,7 +5875,7 @@
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>3</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>4</v>
       </c>
@@ -5907,7 +5906,7 @@
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>5</v>
       </c>
@@ -5921,7 +5920,7 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>6</v>
       </c>
@@ -5937,7 +5936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>7</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>8</v>
       </c>
@@ -5967,7 +5966,7 @@
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>9</v>
       </c>
@@ -5981,7 +5980,7 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>10</v>
       </c>
@@ -5995,7 +5994,7 @@
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>11</v>
       </c>
@@ -6009,7 +6008,7 @@
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>12</v>
       </c>
@@ -6023,7 +6022,7 @@
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>13</v>
       </c>
@@ -6037,7 +6036,7 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>14</v>
       </c>
@@ -6051,7 +6050,7 @@
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>15</v>
       </c>
@@ -6065,7 +6064,7 @@
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>16</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>1</v>
       </c>
@@ -6096,7 +6095,7 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>2</v>
       </c>
@@ -6110,7 +6109,7 @@
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>3</v>
       </c>
@@ -6124,7 +6123,7 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>4</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>5</v>
       </c>
@@ -6154,7 +6153,7 @@
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>6</v>
       </c>
@@ -6168,7 +6167,7 @@
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>7</v>
       </c>
@@ -6182,7 +6181,7 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>8</v>
       </c>
@@ -6196,7 +6195,7 @@
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>9</v>
       </c>
@@ -6210,7 +6209,7 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>10</v>
       </c>
@@ -6224,7 +6223,7 @@
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>11</v>
       </c>
@@ -6238,7 +6237,7 @@
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>12</v>
       </c>
@@ -6252,7 +6251,7 @@
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>13</v>
       </c>
@@ -6266,7 +6265,7 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>14</v>
       </c>
@@ -6280,7 +6279,7 @@
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>15</v>
       </c>
@@ -6294,7 +6293,7 @@
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>16</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>1</v>
       </c>
@@ -6325,7 +6324,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>2</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>3</v>
       </c>
@@ -6355,7 +6354,7 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>4</v>
       </c>
@@ -6369,7 +6368,7 @@
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>5</v>
       </c>
@@ -6385,7 +6384,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>6</v>
       </c>
@@ -6399,7 +6398,7 @@
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>7</v>
       </c>
@@ -6413,7 +6412,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>8</v>
       </c>
@@ -6427,7 +6426,7 @@
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>9</v>
       </c>
@@ -6441,7 +6440,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>10</v>
       </c>
@@ -6455,7 +6454,7 @@
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>11</v>
       </c>
@@ -6469,7 +6468,7 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>12</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>13</v>
       </c>
@@ -6499,7 +6498,7 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>14</v>
       </c>
@@ -6513,7 +6512,7 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>15</v>
       </c>
@@ -6527,7 +6526,7 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>16</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>1</v>
       </c>
@@ -6558,7 +6557,7 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>2</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>3</v>
       </c>
@@ -6588,7 +6587,7 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>4</v>
       </c>
@@ -6602,7 +6601,7 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>5</v>
       </c>
@@ -6616,7 +6615,7 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>6</v>
       </c>
@@ -6630,7 +6629,7 @@
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>7</v>
       </c>
@@ -6647,7 +6646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>8</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>9</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>10</v>
       </c>
@@ -6695,7 +6694,7 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>11</v>
       </c>
@@ -6709,7 +6708,7 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>12</v>
       </c>
@@ -6723,7 +6722,7 @@
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>13</v>
       </c>
@@ -6737,7 +6736,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>14</v>
       </c>
@@ -6751,7 +6750,7 @@
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>15</v>
       </c>
@@ -6765,7 +6764,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>16</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>1</v>
       </c>
@@ -6796,7 +6795,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>2</v>
       </c>
@@ -6813,7 +6812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>3</v>
       </c>
@@ -6827,7 +6826,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>4</v>
       </c>
@@ -6841,7 +6840,7 @@
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>5</v>
       </c>
@@ -6855,7 +6854,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>6</v>
       </c>
@@ -6869,7 +6868,7 @@
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>7</v>
       </c>
@@ -6883,7 +6882,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>8</v>
       </c>
@@ -6897,7 +6896,7 @@
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>9</v>
       </c>
@@ -6911,7 +6910,7 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>10</v>
       </c>
@@ -6925,7 +6924,7 @@
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>11</v>
       </c>
@@ -6939,7 +6938,7 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>12</v>
       </c>
@@ -6953,7 +6952,7 @@
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>13</v>
       </c>
@@ -6967,7 +6966,7 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>14</v>
       </c>
@@ -6981,7 +6980,7 @@
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>15</v>
       </c>
@@ -6995,7 +6994,7 @@
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>16</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>1</v>
       </c>
@@ -7026,7 +7025,7 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>2</v>
       </c>
@@ -7040,7 +7039,7 @@
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>3</v>
       </c>
@@ -7054,7 +7053,7 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>4</v>
       </c>
@@ -7068,7 +7067,7 @@
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>5</v>
       </c>
@@ -7082,7 +7081,7 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>6</v>
       </c>
@@ -7096,7 +7095,7 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>7</v>
       </c>
@@ -7110,7 +7109,7 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>8</v>
       </c>
@@ -7124,7 +7123,7 @@
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>9</v>
       </c>
@@ -7138,7 +7137,7 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>10</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>11</v>
       </c>
@@ -7169,7 +7168,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>12</v>
       </c>
@@ -7183,7 +7182,7 @@
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>13</v>
       </c>
@@ -7197,7 +7196,7 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>14</v>
       </c>
@@ -7211,7 +7210,7 @@
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>15</v>
       </c>
@@ -7225,7 +7224,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>16</v>
       </c>
@@ -7242,7 +7241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>1</v>
       </c>
@@ -7256,7 +7255,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>2</v>
       </c>
@@ -7270,7 +7269,7 @@
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>3</v>
       </c>
@@ -7284,7 +7283,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>4</v>
       </c>
@@ -7298,7 +7297,7 @@
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>5</v>
       </c>
@@ -7312,7 +7311,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>6</v>
       </c>
@@ -7326,7 +7325,7 @@
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>7</v>
       </c>
@@ -7340,7 +7339,7 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>8</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>9</v>
       </c>
@@ -7370,7 +7369,7 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>10</v>
       </c>
@@ -7384,7 +7383,7 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>11</v>
       </c>
@@ -7398,7 +7397,7 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>12</v>
       </c>
@@ -7412,7 +7411,7 @@
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>13</v>
       </c>
@@ -7426,7 +7425,7 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>14</v>
       </c>
@@ -7440,7 +7439,7 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>15</v>
       </c>
@@ -7454,7 +7453,7 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>16</v>
       </c>
@@ -7471,7 +7470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>1</v>
       </c>
@@ -7485,7 +7484,7 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>2</v>
       </c>
@@ -7499,7 +7498,7 @@
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>3</v>
       </c>
@@ -7513,7 +7512,7 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>4</v>
       </c>
@@ -7527,7 +7526,7 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>5</v>
       </c>
@@ -7541,7 +7540,7 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>6</v>
       </c>
@@ -7555,7 +7554,7 @@
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>7</v>
       </c>
@@ -7569,7 +7568,7 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>8</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>9</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>10</v>
       </c>
@@ -7616,7 +7615,7 @@
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>11</v>
       </c>
@@ -7630,7 +7629,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>12</v>
       </c>
@@ -7644,7 +7643,7 @@
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>13</v>
       </c>
@@ -7658,7 +7657,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>14</v>
       </c>
@@ -7672,7 +7671,7 @@
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>15</v>
       </c>
@@ -7686,7 +7685,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>16</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>1</v>
       </c>
@@ -7717,7 +7716,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>2</v>
       </c>
@@ -7731,7 +7730,7 @@
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>3</v>
       </c>
@@ -7745,7 +7744,7 @@
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>4</v>
       </c>
@@ -7759,7 +7758,7 @@
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>5</v>
       </c>
@@ -7773,7 +7772,7 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>6</v>
       </c>
@@ -7787,7 +7786,7 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>7</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>8</v>
       </c>
@@ -7818,7 +7817,7 @@
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>9</v>
       </c>
@@ -7832,7 +7831,7 @@
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>10</v>
       </c>
@@ -7846,7 +7845,7 @@
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>11</v>
       </c>
@@ -7860,7 +7859,7 @@
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>12</v>
       </c>
@@ -7874,7 +7873,7 @@
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>13</v>
       </c>
@@ -7888,7 +7887,7 @@
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>14</v>
       </c>
@@ -7902,7 +7901,7 @@
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>15</v>
       </c>
@@ -7916,7 +7915,7 @@
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>16</v>
       </c>
@@ -7933,7 +7932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>1</v>
       </c>
@@ -7947,7 +7946,7 @@
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>2</v>
       </c>
@@ -7961,7 +7960,7 @@
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>3</v>
       </c>
@@ -7975,7 +7974,7 @@
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>4</v>
       </c>
@@ -7989,7 +7988,7 @@
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>5</v>
       </c>
@@ -8003,7 +8002,7 @@
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>6</v>
       </c>
@@ -8017,7 +8016,7 @@
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>7</v>
       </c>
@@ -8031,7 +8030,7 @@
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>8</v>
       </c>
@@ -8045,7 +8044,7 @@
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>9</v>
       </c>
@@ -8059,7 +8058,7 @@
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>10</v>
       </c>
@@ -8073,7 +8072,7 @@
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>11</v>
       </c>
@@ -8087,7 +8086,7 @@
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>12</v>
       </c>
@@ -8101,7 +8100,7 @@
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>13</v>
       </c>
@@ -8115,7 +8114,7 @@
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>14</v>
       </c>
@@ -8129,7 +8128,7 @@
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>15</v>
       </c>
@@ -8143,7 +8142,7 @@
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>16</v>
       </c>
@@ -8160,7 +8159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>1</v>
       </c>
@@ -8174,7 +8173,7 @@
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>2</v>
       </c>
@@ -8188,7 +8187,7 @@
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>3</v>
       </c>
@@ -8202,7 +8201,7 @@
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>4</v>
       </c>
@@ -8216,7 +8215,7 @@
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>5</v>
       </c>
@@ -8230,7 +8229,7 @@
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>6</v>
       </c>
@@ -8244,7 +8243,7 @@
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>7</v>
       </c>
@@ -8258,7 +8257,7 @@
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>8</v>
       </c>
@@ -8272,7 +8271,7 @@
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>9</v>
       </c>
@@ -8286,7 +8285,7 @@
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>10</v>
       </c>
@@ -8300,7 +8299,7 @@
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>11</v>
       </c>
@@ -8314,7 +8313,7 @@
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>12</v>
       </c>
@@ -8330,7 +8329,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>13</v>
       </c>
@@ -8344,7 +8343,7 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>14</v>
       </c>
@@ -8358,7 +8357,7 @@
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>15</v>
       </c>
@@ -8372,7 +8371,7 @@
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>16</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>1</v>
       </c>
@@ -8403,7 +8402,7 @@
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>2</v>
       </c>
@@ -8417,7 +8416,7 @@
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>3</v>
       </c>
@@ -8431,7 +8430,7 @@
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>4</v>
       </c>
@@ -8445,7 +8444,7 @@
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>5</v>
       </c>
@@ -8459,7 +8458,7 @@
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>6</v>
       </c>
@@ -8473,7 +8472,7 @@
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>7</v>
       </c>
@@ -8487,7 +8486,7 @@
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>8</v>
       </c>
@@ -8501,7 +8500,7 @@
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>9</v>
       </c>
@@ -8515,7 +8514,7 @@
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>10</v>
       </c>
@@ -8529,7 +8528,7 @@
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>11</v>
       </c>
@@ -8543,7 +8542,7 @@
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>12</v>
       </c>
@@ -8557,7 +8556,7 @@
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>13</v>
       </c>
@@ -8571,7 +8570,7 @@
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>14</v>
       </c>
@@ -8585,7 +8584,7 @@
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>15</v>
       </c>
@@ -8599,7 +8598,7 @@
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>16</v>
       </c>
@@ -8616,7 +8615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>1</v>
       </c>
@@ -8630,7 +8629,7 @@
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>2</v>
       </c>
@@ -8644,7 +8643,7 @@
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>3</v>
       </c>
@@ -8658,7 +8657,7 @@
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>4</v>
       </c>
@@ -8672,7 +8671,7 @@
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>5</v>
       </c>
@@ -8686,7 +8685,7 @@
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>6</v>
       </c>
@@ -8700,7 +8699,7 @@
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>7</v>
       </c>
@@ -8714,7 +8713,7 @@
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>8</v>
       </c>
@@ -8728,7 +8727,7 @@
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>9</v>
       </c>
@@ -8742,7 +8741,7 @@
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>10</v>
       </c>
@@ -8756,7 +8755,7 @@
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>11</v>
       </c>
@@ -8770,7 +8769,7 @@
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>12</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>13</v>
       </c>
@@ -8800,7 +8799,7 @@
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>14</v>
       </c>
@@ -8814,7 +8813,7 @@
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>15</v>
       </c>
@@ -8828,7 +8827,7 @@
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>16</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>1</v>
       </c>
@@ -8859,7 +8858,7 @@
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>2</v>
       </c>
@@ -8873,7 +8872,7 @@
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>3</v>
       </c>
@@ -8887,7 +8886,7 @@
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>4</v>
       </c>
@@ -8901,7 +8900,7 @@
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>5</v>
       </c>
@@ -8915,7 +8914,7 @@
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>6</v>
       </c>
@@ -8929,7 +8928,7 @@
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>7</v>
       </c>
@@ -8943,7 +8942,7 @@
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>8</v>
       </c>
@@ -8957,7 +8956,7 @@
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>9</v>
       </c>
@@ -8971,7 +8970,7 @@
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>10</v>
       </c>
@@ -8985,7 +8984,7 @@
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>11</v>
       </c>
@@ -8999,7 +8998,7 @@
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>12</v>
       </c>
@@ -9013,7 +9012,7 @@
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>13</v>
       </c>
@@ -9027,7 +9026,7 @@
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>14</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>15</v>
       </c>
@@ -9058,7 +9057,7 @@
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>16</v>
       </c>
@@ -9072,7 +9071,7 @@
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>1</v>
       </c>
@@ -9086,7 +9085,7 @@
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>2</v>
       </c>
@@ -9100,7 +9099,7 @@
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>3</v>
       </c>
@@ -9114,7 +9113,7 @@
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>4</v>
       </c>
@@ -9128,7 +9127,7 @@
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>5</v>
       </c>
@@ -9142,7 +9141,7 @@
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>6</v>
       </c>
@@ -9156,7 +9155,7 @@
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>7</v>
       </c>
@@ -9170,7 +9169,7 @@
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>8</v>
       </c>
@@ -9184,7 +9183,7 @@
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>9</v>
       </c>
@@ -9198,7 +9197,7 @@
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>10</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>11</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>12</v>
       </c>
@@ -9249,7 +9248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>13</v>
       </c>
@@ -9266,7 +9265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>14</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>15</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>16</v>
       </c>
@@ -9317,7 +9316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>1</v>
       </c>
@@ -9331,7 +9330,7 @@
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>2</v>
       </c>
@@ -9348,7 +9347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>3</v>
       </c>
@@ -9362,7 +9361,7 @@
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>4</v>
       </c>
@@ -9376,7 +9375,7 @@
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>5</v>
       </c>
@@ -9390,7 +9389,7 @@
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>6</v>
       </c>
@@ -9407,7 +9406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>7</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>8</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>9</v>
       </c>
@@ -9458,7 +9457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>10</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>11</v>
       </c>
@@ -9492,7 +9491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>12</v>
       </c>
@@ -9509,7 +9508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>13</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>14</v>
       </c>
@@ -9543,7 +9542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>15</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>16</v>
       </c>
@@ -9577,7 +9576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>1</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>2</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>3</v>
       </c>
@@ -9628,7 +9627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>4</v>
       </c>
@@ -9645,7 +9644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>5</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>6</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>7</v>
       </c>
@@ -9696,7 +9695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>8</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>9</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>10</v>
       </c>
@@ -9747,7 +9746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>11</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>12</v>
       </c>
@@ -9781,7 +9780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>13</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>14</v>
       </c>
@@ -9815,7 +9814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>15</v>
       </c>
@@ -9832,7 +9831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>16</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>1</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>2</v>
       </c>
@@ -9880,7 +9879,7 @@
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>3</v>
       </c>
@@ -9894,7 +9893,7 @@
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>4</v>
       </c>
@@ -9908,7 +9907,7 @@
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>5</v>
       </c>
@@ -9922,7 +9921,7 @@
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>6</v>
       </c>
@@ -9936,7 +9935,7 @@
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>7</v>
       </c>
@@ -9950,7 +9949,7 @@
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>8</v>
       </c>
@@ -9964,7 +9963,7 @@
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>9</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>10</v>
       </c>
@@ -9997,7 +9996,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>11</v>
       </c>
@@ -10011,7 +10010,7 @@
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>12</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>13</v>
       </c>
@@ -10041,7 +10040,7 @@
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>14</v>
       </c>
@@ -10055,7 +10054,7 @@
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>15</v>
       </c>
@@ -10072,7 +10071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>16</v>
       </c>
@@ -10089,7 +10088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>1</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>2</v>
       </c>
@@ -10120,7 +10119,7 @@
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>3</v>
       </c>
@@ -10134,7 +10133,7 @@
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>4</v>
       </c>
@@ -10148,7 +10147,7 @@
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>5</v>
       </c>
@@ -10162,7 +10161,7 @@
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>6</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>7</v>
       </c>
@@ -10192,7 +10191,7 @@
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>8</v>
       </c>
@@ -10206,7 +10205,7 @@
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>9</v>
       </c>
@@ -10220,7 +10219,7 @@
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>10</v>
       </c>
@@ -10234,7 +10233,7 @@
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>11</v>
       </c>
@@ -10248,7 +10247,7 @@
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>12</v>
       </c>
@@ -10262,7 +10261,7 @@
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>13</v>
       </c>
@@ -10276,7 +10275,7 @@
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>14</v>
       </c>
@@ -10290,7 +10289,7 @@
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>15</v>
       </c>
@@ -10304,7 +10303,7 @@
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>16</v>
       </c>
@@ -10321,7 +10320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>1</v>
       </c>
@@ -10338,7 +10337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>2</v>
       </c>
@@ -10352,7 +10351,7 @@
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>3</v>
       </c>
@@ -10366,7 +10365,7 @@
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>4</v>
       </c>
@@ -10380,7 +10379,7 @@
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>5</v>
       </c>
@@ -10394,7 +10393,7 @@
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>6</v>
       </c>
@@ -10408,7 +10407,7 @@
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>7</v>
       </c>
@@ -10422,7 +10421,7 @@
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>8</v>
       </c>
@@ -10436,7 +10435,7 @@
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>9</v>
       </c>
@@ -10450,7 +10449,7 @@
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>10</v>
       </c>
@@ -10464,7 +10463,7 @@
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>11</v>
       </c>
@@ -10478,7 +10477,7 @@
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>12</v>
       </c>
@@ -10495,7 +10494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>13</v>
       </c>
@@ -10509,7 +10508,7 @@
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>14</v>
       </c>
@@ -10523,7 +10522,7 @@
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>15</v>
       </c>
@@ -10537,7 +10536,7 @@
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>16</v>
       </c>
@@ -10554,7 +10553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>1</v>
       </c>
@@ -10571,7 +10570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>2</v>
       </c>
@@ -10585,7 +10584,7 @@
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>3</v>
       </c>
@@ -10599,7 +10598,7 @@
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>4</v>
       </c>
@@ -10613,7 +10612,7 @@
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>5</v>
       </c>
@@ -10627,7 +10626,7 @@
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>6</v>
       </c>
@@ -10641,7 +10640,7 @@
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>7</v>
       </c>
@@ -10655,7 +10654,7 @@
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>8</v>
       </c>
@@ -10669,7 +10668,7 @@
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>9</v>
       </c>
@@ -10683,7 +10682,7 @@
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>10</v>
       </c>
@@ -10697,7 +10696,7 @@
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>11</v>
       </c>
@@ -10711,7 +10710,7 @@
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>12</v>
       </c>
@@ -10725,7 +10724,7 @@
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>13</v>
       </c>
@@ -10739,7 +10738,7 @@
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>14</v>
       </c>
@@ -10753,7 +10752,7 @@
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>15</v>
       </c>
@@ -10767,7 +10766,7 @@
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>16</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>1</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>2</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>3</v>
       </c>
@@ -10832,7 +10831,7 @@
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>4</v>
       </c>
@@ -10846,7 +10845,7 @@
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>5</v>
       </c>
@@ -10860,7 +10859,7 @@
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>6</v>
       </c>
@@ -10874,7 +10873,7 @@
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>7</v>
       </c>
@@ -10888,7 +10887,7 @@
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>8</v>
       </c>
@@ -10902,7 +10901,7 @@
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>9</v>
       </c>
@@ -10916,7 +10915,7 @@
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>10</v>
       </c>
@@ -10930,7 +10929,7 @@
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>11</v>
       </c>
@@ -10944,7 +10943,7 @@
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>12</v>
       </c>
@@ -10958,7 +10957,7 @@
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>13</v>
       </c>
@@ -10972,7 +10971,7 @@
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>14</v>
       </c>
@@ -10986,7 +10985,7 @@
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>15</v>
       </c>
@@ -11000,7 +10999,7 @@
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>16</v>
       </c>
@@ -11017,7 +11016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>1</v>
       </c>
@@ -11034,7 +11033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>2</v>
       </c>
@@ -11048,7 +11047,7 @@
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>3</v>
       </c>
@@ -11062,7 +11061,7 @@
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>4</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>5</v>
       </c>
@@ -11092,7 +11091,7 @@
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>6</v>
       </c>
@@ -11106,7 +11105,7 @@
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>7</v>
       </c>
@@ -11120,7 +11119,7 @@
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>8</v>
       </c>
@@ -11134,7 +11133,7 @@
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>9</v>
       </c>
@@ -11148,7 +11147,7 @@
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>10</v>
       </c>
@@ -11162,7 +11161,7 @@
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>11</v>
       </c>
@@ -11176,7 +11175,7 @@
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>12</v>
       </c>
@@ -11190,7 +11189,7 @@
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>13</v>
       </c>
@@ -11204,7 +11203,7 @@
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>14</v>
       </c>
@@ -11218,7 +11217,7 @@
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>15</v>
       </c>
@@ -11232,7 +11231,7 @@
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>16</v>
       </c>
@@ -11249,7 +11248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>1</v>
       </c>
@@ -11266,7 +11265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>2</v>
       </c>
@@ -11283,7 +11282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>3</v>
       </c>
@@ -11300,7 +11299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>4</v>
       </c>
@@ -11314,7 +11313,7 @@
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>5</v>
       </c>
@@ -11328,7 +11327,7 @@
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>6</v>
       </c>
@@ -11342,7 +11341,7 @@
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>7</v>
       </c>
@@ -11356,7 +11355,7 @@
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>8</v>
       </c>
@@ -11373,7 +11372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>9</v>
       </c>
@@ -11387,7 +11386,7 @@
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>10</v>
       </c>
@@ -11401,7 +11400,7 @@
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>11</v>
       </c>
@@ -11415,7 +11414,7 @@
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>12</v>
       </c>
@@ -11429,7 +11428,7 @@
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>13</v>
       </c>
@@ -11443,7 +11442,7 @@
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>14</v>
       </c>
@@ -11457,7 +11456,7 @@
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>15</v>
       </c>
@@ -11471,7 +11470,7 @@
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>16</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>1</v>
       </c>
@@ -11505,7 +11504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>2</v>
       </c>
@@ -11522,7 +11521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>3</v>
       </c>
@@ -11536,7 +11535,7 @@
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>4</v>
       </c>
@@ -11550,7 +11549,7 @@
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>5</v>
       </c>
@@ -11567,7 +11566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>6</v>
       </c>
@@ -11581,7 +11580,7 @@
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>7</v>
       </c>
@@ -11595,7 +11594,7 @@
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>8</v>
       </c>
@@ -11612,7 +11611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>9</v>
       </c>
@@ -11626,7 +11625,7 @@
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>10</v>
       </c>
@@ -11643,7 +11642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>11</v>
       </c>
@@ -11657,7 +11656,7 @@
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>12</v>
       </c>
@@ -11671,7 +11670,7 @@
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>13</v>
       </c>
@@ -11685,7 +11684,7 @@
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>14</v>
       </c>
@@ -11702,7 +11701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>15</v>
       </c>
@@ -11716,7 +11715,7 @@
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>16</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>1</v>
       </c>
@@ -11750,7 +11749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>2</v>
       </c>
@@ -11767,7 +11766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>3</v>
       </c>
@@ -11781,7 +11780,7 @@
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>4</v>
       </c>
@@ -11795,7 +11794,7 @@
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>5</v>
       </c>
@@ -11809,7 +11808,7 @@
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>6</v>
       </c>
@@ -11823,7 +11822,7 @@
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>7</v>
       </c>
@@ -11837,7 +11836,7 @@
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>8</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>9</v>
       </c>
@@ -11868,7 +11867,7 @@
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>10</v>
       </c>
@@ -11882,7 +11881,7 @@
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>11</v>
       </c>
@@ -11896,7 +11895,7 @@
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>12</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>13</v>
       </c>
@@ -11927,7 +11926,7 @@
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>14</v>
       </c>
@@ -11941,7 +11940,7 @@
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>15</v>
       </c>
@@ -11958,7 +11957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>16</v>
       </c>
@@ -11975,7 +11974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>1</v>
       </c>
@@ -11992,7 +11991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>2</v>
       </c>
@@ -12006,7 +12005,7 @@
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>3</v>
       </c>
@@ -12020,7 +12019,7 @@
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>4</v>
       </c>
@@ -12037,7 +12036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>5</v>
       </c>
@@ -12051,7 +12050,7 @@
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>6</v>
       </c>
@@ -12068,7 +12067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>7</v>
       </c>
@@ -12085,7 +12084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>8</v>
       </c>
@@ -12102,7 +12101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>9</v>
       </c>
@@ -12119,7 +12118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>10</v>
       </c>
@@ -12136,7 +12135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>11</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>12</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>13</v>
       </c>
@@ -12187,7 +12186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>14</v>
       </c>
@@ -12204,7 +12203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>15</v>
       </c>
@@ -12221,7 +12220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>16</v>
       </c>
@@ -12238,7 +12237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>1</v>
       </c>
@@ -12255,7 +12254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>2</v>
       </c>
@@ -12272,7 +12271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>3</v>
       </c>
@@ -12289,7 +12288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>4</v>
       </c>
@@ -12306,7 +12305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>5</v>
       </c>
@@ -12323,7 +12322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>6</v>
       </c>
@@ -12340,7 +12339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>7</v>
       </c>
@@ -12357,7 +12356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>8</v>
       </c>
@@ -12374,7 +12373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>9</v>
       </c>
@@ -12391,7 +12390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>10</v>
       </c>
@@ -12408,7 +12407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>11</v>
       </c>
@@ -12425,7 +12424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>12</v>
       </c>
@@ -12442,7 +12441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>13</v>
       </c>
@@ -12459,7 +12458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>14</v>
       </c>
@@ -12476,7 +12475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>15</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>16</v>
       </c>
